--- a/Stocks/TATACHEM.xlsx
+++ b/Stocks/TATACHEM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>654.4</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>616.88053815798366</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>615.53105210288606</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>28.336425686666132</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>1.8000000000000682</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>12.050000000000068</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.14937759336100068</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>DOWN</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>623.46215392725969</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-2.5837015156404277</v>
       </c>
       <c r="Y67">
         <v>-0.49636646833292819</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>DOWN</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>586</v>
+      </c>
+      <c r="D83">
+        <v>595.20000000000005</v>
+      </c>
+      <c r="E83">
+        <v>584</v>
+      </c>
+      <c r="F83">
+        <v>590.5</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>589.9</v>
+      </c>
+      <c r="H83">
+        <v>588.31356756395712</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>596.99706307976851</v>
+      </c>
+      <c r="K83">
+        <v>581.29523408561272</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>52.198648756425058</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>6.5</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>11.200000000000045</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.58035714285714046</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>590.92302876164513</v>
+      </c>
+      <c r="W83">
+        <v>599.40888976740155</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-8.4858610057564192</v>
+      </c>
+      <c r="Y83">
+        <v>-8.8508629262717857</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>590.1</v>
+      </c>
+      <c r="D84">
+        <v>596.79999999999995</v>
+      </c>
+      <c r="E84">
+        <v>585</v>
+      </c>
+      <c r="F84">
+        <v>587</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>589.6</v>
+      </c>
+      <c r="H84">
+        <v>588.95678378197863</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>596.95327128426436</v>
+      </c>
+      <c r="K84">
+        <v>582.11851539992097</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>46.390052898349573</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>11.799999999999955</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.16949152542372947</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>590.31948587523823</v>
+      </c>
+      <c r="W84">
+        <v>598.48971274759401</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-8.1702268723557836</v>
+      </c>
+      <c r="Y84">
+        <v>-8.7147357154885849</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>590</v>
+      </c>
+      <c r="D85">
+        <v>596.6</v>
+      </c>
+      <c r="E85">
+        <v>586</v>
+      </c>
+      <c r="F85">
+        <v>586.75</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>589.7833333333333</v>
+      </c>
+      <c r="H85">
+        <v>589.37005855765597</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>596.87476655442788</v>
+      </c>
+      <c r="K85">
+        <v>582.98106753327181</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>45.933674514508603</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>10.600000000000023</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>7.0754716981131921E-2</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>589.77033420212467</v>
+      </c>
+      <c r="W85">
+        <v>597.62010439592041</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-7.8497701937957345</v>
+      </c>
+      <c r="Y85">
+        <v>-8.5417426111500152</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>592</v>
+      </c>
+      <c r="D86">
+        <v>593.4</v>
+      </c>
+      <c r="E86">
+        <v>582.1</v>
+      </c>
+      <c r="F86">
+        <v>585</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>586.83333333333337</v>
+      </c>
+      <c r="H86">
+        <v>588.10169594549461</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>596.10259620899944</v>
+      </c>
+      <c r="K86">
+        <v>582.78527474810028</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>42.293039441006961</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>2.8999999999999773</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>11.299999999999955</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.25663716814159193</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>589.03643663256707</v>
+      </c>
+      <c r="W86">
+        <v>596.6852818480744</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-7.6488452155073219</v>
+      </c>
+      <c r="Y86">
+        <v>-8.3631631320214765</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>586.85</v>
+      </c>
+      <c r="D87">
+        <v>591.65</v>
+      </c>
+      <c r="E87">
+        <v>584</v>
+      </c>
+      <c r="F87">
+        <v>587.5</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>587.7166666666667</v>
+      </c>
+      <c r="H87">
+        <v>587.90918130608065</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>595.11313038477738</v>
+      </c>
+      <c r="K87">
+        <v>583.05521369296684</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>49.447841698884446</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>3.5</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>7.6499999999999773</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.45751633986928242</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>588.8000617660183</v>
+      </c>
+      <c r="W87">
+        <v>596.00489060006885</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-7.2048288340505451</v>
+      </c>
+      <c r="Y87">
+        <v>-8.1314962724272899</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>587.45000000000005</v>
+      </c>
+      <c r="D88">
+        <v>589.5</v>
+      </c>
+      <c r="E88">
+        <v>571</v>
+      </c>
+      <c r="F88">
+        <v>579</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>579.83333333333337</v>
+      </c>
+      <c r="H88">
+        <v>583.87125731970696</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>593.8657680770491</v>
+      </c>
+      <c r="K88">
+        <v>580.37627731675195</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N88">
+        <v>32.38369012660722</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>18.5</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>587.29235995586168</v>
+      </c>
+      <c r="W88">
+        <v>594.74526907413781</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-7.4529091182761249</v>
+      </c>
+      <c r="Y88">
+        <v>-7.9957788415970565</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>582</v>
+      </c>
+      <c r="D89">
+        <v>584.6</v>
+      </c>
+      <c r="E89">
+        <v>574.25</v>
+      </c>
+      <c r="F89">
+        <v>575.20000000000005</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>578.01666666666665</v>
+      </c>
+      <c r="H89">
+        <v>580.9439619931868</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>591.8067085043715</v>
+      </c>
+      <c r="K89">
+        <v>579.01488235747377</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N89">
+        <v>27.148243064400074</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>0.95000000000004547</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>10.350000000000023</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>9.1787439613530766E-2</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V89">
+        <v>585.43199688572918</v>
+      </c>
+      <c r="W89">
+        <v>593.29747136494245</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-7.865474479213276</v>
+      </c>
+      <c r="Y89">
+        <v>-7.9697179691203006</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>572</v>
+      </c>
+      <c r="D90">
+        <v>583.4</v>
+      </c>
+      <c r="E90">
+        <v>568.1</v>
+      </c>
+      <c r="F90">
+        <v>582</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>577.83333333333337</v>
+      </c>
+      <c r="H90">
+        <v>579.38864766326014</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>589.93855105895557</v>
+      </c>
+      <c r="K90">
+        <v>576.58935294470177</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>46.49660186922015</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>13.899999999999977</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>15.299999999999955</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.908496732026145</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>584.90399736484778</v>
+      </c>
+      <c r="W90">
+        <v>592.46062163420595</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-7.5566242693581671</v>
+      </c>
+      <c r="Y90">
+        <v>-7.8870992291678741</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>575.35</v>
+      </c>
+      <c r="D91">
+        <v>622.5</v>
+      </c>
+      <c r="E91">
+        <v>575.35</v>
+      </c>
+      <c r="F91">
+        <v>617.85</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>605.23333333333323</v>
+      </c>
+      <c r="H91">
+        <v>592.31099049829663</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>597.17442860140989</v>
+      </c>
+      <c r="K91">
+        <v>576.31394117921252</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>80.545824250288419</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>42.5</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>47.149999999999977</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.90137857900318175</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V91">
+        <v>589.97261315487117</v>
+      </c>
+      <c r="W91">
+        <v>594.34131632796846</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-4.3687031730972876</v>
+      </c>
+      <c r="Y91">
+        <v>-7.1834200179537566</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>625</v>
+      </c>
+      <c r="D92">
+        <v>628</v>
+      </c>
+      <c r="E92">
+        <v>613.54999999999995</v>
+      </c>
+      <c r="F92">
+        <v>621.25</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>620.93333333333328</v>
+      </c>
+      <c r="H92">
+        <v>606.62216191581501</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>604.02455557887436</v>
+      </c>
+      <c r="K92">
+        <v>584.58862091716526</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>81.910566300554947</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>7.7000000000000455</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>14.450000000000045</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.5328719723183406</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>594.78451882335253</v>
+      </c>
+      <c r="W92">
+        <v>596.33455215552635</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-1.5500333321738253</v>
+      </c>
+      <c r="Y92">
+        <v>-6.05674268079777</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>629.79999999999995</v>
+      </c>
+      <c r="D93">
+        <v>630</v>
+      </c>
+      <c r="E93">
+        <v>618</v>
+      </c>
+      <c r="F93">
+        <v>620.25</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>622.75</v>
+      </c>
+      <c r="H93">
+        <v>614.68608095790751</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>609.79687656134672</v>
+      </c>
+      <c r="K93">
+        <v>592.01337182446184</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>79.851122894827455</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>2.25</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>12</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.1875</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>598.70228515822134</v>
+      </c>
+      <c r="W93">
+        <v>598.10606681067259</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>0.59621834754875636</v>
+      </c>
+      <c r="Y93">
+        <v>-4.7261504751284651</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>623.1</v>
+      </c>
+      <c r="D94">
+        <v>636</v>
+      </c>
+      <c r="E94">
+        <v>623</v>
+      </c>
+      <c r="F94">
+        <v>632</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>630.33333333333337</v>
+      </c>
+      <c r="H94">
+        <v>622.5097071456205</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>615.61979288104749</v>
+      </c>
+      <c r="K94">
+        <v>598.89928919680369</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>85.285075545234591</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>13</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>603.82501051849499</v>
+      </c>
+      <c r="W94">
+        <v>600.61672852840059</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>3.208281990094406</v>
+      </c>
+      <c r="Y94">
+        <v>-3.1392639820838908</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>639.95000000000005</v>
+      </c>
+      <c r="D95">
+        <v>647</v>
+      </c>
+      <c r="E95">
+        <v>632.04999999999995</v>
+      </c>
+      <c r="F95">
+        <v>637.5</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>638.85</v>
+      </c>
+      <c r="H95">
+        <v>630.67985357281032</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>622.59317224081474</v>
+      </c>
+      <c r="K95">
+        <v>606.26611381973623</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>87.290587731741439</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>5.4500000000000455</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>14.950000000000045</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.36454849498327951</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>609.00577813103428</v>
+      </c>
+      <c r="W95">
+        <v>603.34882271148206</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>5.6569554195522187</v>
+      </c>
+      <c r="Y95">
+        <v>-1.3800201017566687</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>651.25</v>
+      </c>
+      <c r="D96">
+        <v>653.75</v>
+      </c>
+      <c r="E96">
+        <v>635</v>
+      </c>
+      <c r="F96">
+        <v>637.6</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>642.11666666666667</v>
+      </c>
+      <c r="H96">
+        <v>636.39826011973855</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>629.51691174285588</v>
+      </c>
+      <c r="K96">
+        <v>612.65142185979482</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>87.329833867468182</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>2.6000000000000227</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>18.75</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.13866666666666788</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>613.40488918779829</v>
+      </c>
+      <c r="W96">
+        <v>605.88594695507595</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>7.5189422327223383</v>
+      </c>
+      <c r="Y96">
+        <v>0.39977236513913295</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>636.70000000000005</v>
+      </c>
+      <c r="D97">
+        <v>640.70000000000005</v>
+      </c>
+      <c r="E97">
+        <v>628.25</v>
+      </c>
+      <c r="F97">
+        <v>636.54999999999995</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>635.16666666666663</v>
+      </c>
+      <c r="H97">
+        <v>635.78246339320253</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>632.00204246666567</v>
+      </c>
+      <c r="K97">
+        <v>616.1177725576182</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>83.928267083409807</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>8.2999999999999545</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>12.450000000000045</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.66666666666666063</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>616.96567546659855</v>
+      </c>
+      <c r="W97">
+        <v>608.15735829173695</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>8.8083171748615996</v>
+      </c>
+      <c r="Y97">
+        <v>2.0814813270836261</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>640</v>
+      </c>
+      <c r="D98">
+        <v>646.5</v>
+      </c>
+      <c r="E98">
+        <v>637.25</v>
+      </c>
+      <c r="F98">
+        <v>644</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>642.58333333333337</v>
+      </c>
+      <c r="H98">
+        <v>639.1828983632679</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>635.22381080740661</v>
+      </c>
+      <c r="K98">
+        <v>620.81382310036975</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>88.054810357111634</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>6.75</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>9.25</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.72972972972972971</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>621.12480231789107</v>
+      </c>
+      <c r="W98">
+        <v>610.81236878864536</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>10.312433529245709</v>
+      </c>
+      <c r="Y98">
+        <v>3.7276717675160427</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>647.5</v>
+      </c>
+      <c r="D99">
+        <v>667.5</v>
+      </c>
+      <c r="E99">
+        <v>642</v>
+      </c>
+      <c r="F99">
+        <v>659.45</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>656.31666666666672</v>
+      </c>
+      <c r="H99">
+        <v>647.74978251496736</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>642.39629729464957</v>
+      </c>
+      <c r="K99">
+        <v>625.52186241139873</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>92.828247543293202</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>17.450000000000045</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>25.5</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.68431372549019787</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>627.02098657667705</v>
+      </c>
+      <c r="W99">
+        <v>614.4151562857827</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>12.605830290894346</v>
+      </c>
+      <c r="Y99">
+        <v>5.5033034721917033</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>660.9</v>
+      </c>
+      <c r="D100">
+        <v>660.9</v>
+      </c>
+      <c r="E100">
+        <v>643.1</v>
+      </c>
+      <c r="F100">
+        <v>644.9</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>649.63333333333333</v>
+      </c>
+      <c r="H100">
+        <v>648.6915579241504</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>646.50823122917188</v>
+      </c>
+      <c r="K100">
+        <v>629.42811520886573</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>63.130574243828299</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>1.7999999999999545</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>17.799999999999955</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.10112359550561568</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>629.77160402641903</v>
+      </c>
+      <c r="W100">
+        <v>616.67329285720621</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>13.09831116921282</v>
+      </c>
+      <c r="Y100">
+        <v>7.0223050115959271</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>646</v>
+      </c>
+      <c r="D101">
+        <v>649.54999999999995</v>
+      </c>
+      <c r="E101">
+        <v>636</v>
+      </c>
+      <c r="F101">
+        <v>641.9</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>642.48333333333323</v>
+      </c>
+      <c r="H101">
+        <v>645.58744562874176</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>647.18417984491145</v>
+      </c>
+      <c r="K101">
+        <v>630.88853405134</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>58.321727593025422</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>5.8999999999999773</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>13.549999999999955</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.4354243542435422</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>631.63751109927762</v>
+      </c>
+      <c r="W101">
+        <v>618.54193783074652</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>13.095573268531098</v>
+      </c>
+      <c r="Y101">
+        <v>8.2369586629829605</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>638.95000000000005</v>
+      </c>
+      <c r="D102">
+        <v>638.95000000000005</v>
+      </c>
+      <c r="E102">
+        <v>612.25</v>
+      </c>
+      <c r="F102">
+        <v>614</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>621.73333333333335</v>
+      </c>
+      <c r="H102">
+        <v>633.66038948103756</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>645.35436210159776</v>
+      </c>
+      <c r="K102">
+        <v>626.74663759548662</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>30.931517050106059</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>1.75</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>26.700000000000045</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>6.5543071161048572E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>628.92404785323492</v>
+      </c>
+      <c r="W102">
+        <v>618.20549799143191</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>10.718549861803012</v>
+      </c>
+      <c r="Y102">
+        <v>8.7332769027469705</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>616</v>
+      </c>
+      <c r="D103">
+        <v>622.70000000000005</v>
+      </c>
+      <c r="E103">
+        <v>597.45000000000005</v>
+      </c>
+      <c r="F103">
+        <v>619</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>613.05000000000007</v>
+      </c>
+      <c r="H103">
+        <v>623.35519474051875</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>640.32005941235377</v>
+      </c>
+      <c r="K103">
+        <v>620.23627368537848</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>37.506240039186643</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>21.549999999999955</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>25.25</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.85346534653465167</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>627.39727126042953</v>
+      </c>
+      <c r="W103">
+        <v>618.26434999206663</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>9.1329212683629066</v>
+      </c>
+      <c r="Y103">
+        <v>8.8132057758701574</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>615</v>
+      </c>
+      <c r="D104">
+        <v>633.54999999999995</v>
+      </c>
+      <c r="E104">
+        <v>612.95000000000005</v>
+      </c>
+      <c r="F104">
+        <v>624</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>623.5</v>
+      </c>
+      <c r="H104">
+        <v>623.42759737025938</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>638.81560176516405</v>
+      </c>
+      <c r="K104">
+        <v>618.61710175529436</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>44.151596999230456</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>11.049999999999955</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>20.599999999999909</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.53640776699029147</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>626.87461414344034</v>
+      </c>
+      <c r="W104">
+        <v>618.68921295561722</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>8.1854011878231177</v>
+      </c>
+      <c r="Y104">
+        <v>8.6876448582607502</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>628.9</v>
+      </c>
+      <c r="D105">
+        <v>628.9</v>
+      </c>
+      <c r="E105">
+        <v>612.20000000000005</v>
+      </c>
+      <c r="F105">
+        <v>620</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>620.36666666666667</v>
+      </c>
+      <c r="H105">
+        <v>621.89713201846303</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>636.61213470623875</v>
+      </c>
+      <c r="K105">
+        <v>617.19107914300673</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N105">
+        <v>39.907933853348204</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>7.7999999999999545</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>16.699999999999932</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.46706586826347224</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>625.81698119829571</v>
+      </c>
+      <c r="W105">
+        <v>618.78630829223812</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>7.030672906057589</v>
+      </c>
+      <c r="Y105">
+        <v>8.3562504678201179</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>624</v>
+      </c>
+      <c r="D106">
+        <v>641.9</v>
+      </c>
+      <c r="E106">
+        <v>611</v>
+      </c>
+      <c r="F106">
+        <v>637.5</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>630.13333333333333</v>
+      </c>
+      <c r="H106">
+        <v>626.01523267589823</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>637.78721588263011</v>
+      </c>
+      <c r="K106">
+        <v>615.81528377789414</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>60.611713748053745</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>26.5</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>30.899999999999977</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.85760517799352809</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>627.61436870625016</v>
+      </c>
+      <c r="W106">
+        <v>620.17250767799828</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>7.4418610282518785</v>
+      </c>
+      <c r="Y106">
+        <v>8.17337257990647</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>639.70000000000005</v>
+      </c>
+      <c r="D107">
+        <v>645.5</v>
+      </c>
+      <c r="E107">
+        <v>631</v>
+      </c>
+      <c r="F107">
+        <v>645</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>640.5</v>
+      </c>
+      <c r="H107">
+        <v>633.25761633794912</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>639.50116790871232</v>
+      </c>
+      <c r="K107">
+        <v>619.18966516058435</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N107">
+        <v>66.748929186728461</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>14</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>14.5</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V107">
+        <v>630.28908121298093</v>
+      </c>
+      <c r="W107">
+        <v>622.01158118333171</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>8.277500029649218</v>
+      </c>
+      <c r="Y107">
+        <v>8.1941980698550196</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
